--- a/ozone/MAE_stacked.xlsx
+++ b/ozone/MAE_stacked.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453450720855814</v>
+        <v>0.09798757153841207</v>
       </c>
       <c r="C2" t="n">
-        <v>1.013377187887287</v>
+        <v>0.7301515166201069</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1849400653343251</v>
+        <v>0.1047583938750073</v>
       </c>
       <c r="C3" t="n">
-        <v>2.539406755156386</v>
+        <v>1.102359249518327</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/MAE_stacked.xlsx
+++ b/ozone/MAE_stacked.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09798757153841207</v>
+        <v>0.3771839289624588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7301515166201069</v>
+        <v>3.334164874200428</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1047583938750073</v>
+        <v>0.3929637689979964</v>
       </c>
       <c r="C3" t="n">
-        <v>1.102359249518327</v>
+        <v>4.399788092463178</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/MAE_stacked.xlsx
+++ b/ozone/MAE_stacked.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3771839289624588</v>
+        <v>0.2851076882107093</v>
       </c>
       <c r="C2" t="n">
-        <v>3.334164874200428</v>
+        <v>2.671180954222684</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3929637689979964</v>
+        <v>0.2991427698894775</v>
       </c>
       <c r="C3" t="n">
-        <v>4.399788092463178</v>
+        <v>3.086674271150811</v>
       </c>
     </row>
   </sheetData>
